--- a/model/1_sorted data from Haytham (+extension).xlsx
+++ b/model/1_sorted data from Haytham (+extension).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\GitHub\lebanese-microgrid\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA94DD6-856D-4F25-B973-4A507A554995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE90CA1-ABCA-4F7B-A9CD-37D497308568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15345" xr2:uid="{15677FBB-49CD-46D3-AFDF-90F189AC95A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{15677FBB-49CD-46D3-AFDF-90F189AC95A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <dimension ref="A1:R42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -714,15 +714,15 @@
         <v>7</v>
       </c>
       <c r="P3" s="12">
-        <f t="shared" ref="P3:P42" si="1">30*5</f>
-        <v>150</v>
+        <f>P2-1</f>
+        <v>149</v>
       </c>
       <c r="Q3" s="12">
-        <f t="shared" ref="Q3:Q13" si="2">0.2*1500</f>
+        <f t="shared" ref="Q3:Q13" si="1">0.2*1500</f>
         <v>300</v>
       </c>
       <c r="R3" s="12">
-        <f t="shared" ref="R3:R13" si="3">0.2*740</f>
+        <f t="shared" ref="R3:R13" si="2">0.2*740</f>
         <v>148</v>
       </c>
     </row>
@@ -774,15 +774,15 @@
         <v>8</v>
       </c>
       <c r="P4" s="12">
+        <f t="shared" ref="P4:P42" si="3">P3-1</f>
+        <v>148</v>
+      </c>
+      <c r="Q4" s="12">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="Q4" s="12">
+        <v>300</v>
+      </c>
+      <c r="R4" s="12">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="R4" s="12">
-        <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
@@ -834,15 +834,15 @@
         <v>11</v>
       </c>
       <c r="P5" s="12">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="Q5" s="12">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="Q5" s="12">
+        <v>300</v>
+      </c>
+      <c r="R5" s="12">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="R5" s="12">
-        <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
@@ -894,15 +894,15 @@
         <v>15</v>
       </c>
       <c r="P6" s="12">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="Q6" s="12">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="Q6" s="12">
+        <v>300</v>
+      </c>
+      <c r="R6" s="12">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="R6" s="12">
-        <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
@@ -954,15 +954,15 @@
         <v>18</v>
       </c>
       <c r="P7" s="12">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="Q7" s="12">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="Q7" s="12">
+        <v>300</v>
+      </c>
+      <c r="R7" s="12">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="R7" s="12">
-        <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
@@ -1014,15 +1014,15 @@
         <v>21</v>
       </c>
       <c r="P8" s="12">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="Q8" s="12">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="Q8" s="12">
+        <v>300</v>
+      </c>
+      <c r="R8" s="12">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="R8" s="12">
-        <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
@@ -1074,15 +1074,15 @@
         <v>21</v>
       </c>
       <c r="P9" s="12">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="Q9" s="12">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="Q9" s="12">
+        <v>300</v>
+      </c>
+      <c r="R9" s="12">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="R9" s="12">
-        <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
@@ -1134,15 +1134,15 @@
         <v>20</v>
       </c>
       <c r="P10" s="12">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="Q10" s="12">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="Q10" s="12">
+        <v>300</v>
+      </c>
+      <c r="R10" s="12">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="R10" s="12">
-        <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
@@ -1194,15 +1194,15 @@
         <v>17</v>
       </c>
       <c r="P11" s="12">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="Q11" s="12">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="Q11" s="12">
+        <v>300</v>
+      </c>
+      <c r="R11" s="12">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="R11" s="12">
-        <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
@@ -1254,15 +1254,15 @@
         <v>12</v>
       </c>
       <c r="P12" s="12">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="Q12" s="12">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="Q12" s="12">
+        <v>300</v>
+      </c>
+      <c r="R12" s="12">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="R12" s="12">
-        <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
@@ -1314,15 +1314,15 @@
         <v>9</v>
       </c>
       <c r="P13" s="14">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="Q13" s="14">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="Q13" s="14">
+        <v>300</v>
+      </c>
+      <c r="R13" s="14">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="R13" s="14">
-        <f t="shared" si="3"/>
         <v>148</v>
       </c>
     </row>
@@ -1374,8 +1374,8 @@
         <v>6</v>
       </c>
       <c r="P14" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="Q14" s="12">
         <f>$Q$13+($Q$25-Q$13)/12*B14</f>
@@ -1434,8 +1434,8 @@
         <v>7</v>
       </c>
       <c r="P15" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>137</v>
       </c>
       <c r="Q15" s="12">
         <f t="shared" ref="Q15:Q24" si="4">$Q$13+($Q$25-Q$13)/12*B15</f>
@@ -1494,8 +1494,8 @@
         <v>8</v>
       </c>
       <c r="P16" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>136</v>
       </c>
       <c r="Q16" s="12">
         <f t="shared" si="4"/>
@@ -1554,8 +1554,8 @@
         <v>11</v>
       </c>
       <c r="P17" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>135</v>
       </c>
       <c r="Q17" s="12">
         <f t="shared" si="4"/>
@@ -1614,8 +1614,8 @@
         <v>15</v>
       </c>
       <c r="P18" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>134</v>
       </c>
       <c r="Q18" s="12">
         <f t="shared" si="4"/>
@@ -1674,8 +1674,8 @@
         <v>18</v>
       </c>
       <c r="P19" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>133</v>
       </c>
       <c r="Q19" s="12">
         <f t="shared" si="4"/>
@@ -1734,8 +1734,8 @@
         <v>21</v>
       </c>
       <c r="P20" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
       <c r="Q20" s="12">
         <f t="shared" si="4"/>
@@ -1794,8 +1794,8 @@
         <v>21</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>131</v>
       </c>
       <c r="Q21" s="12">
         <f t="shared" si="4"/>
@@ -1854,8 +1854,8 @@
         <v>20</v>
       </c>
       <c r="P22" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="Q22" s="12">
         <f t="shared" si="4"/>
@@ -1914,8 +1914,8 @@
         <v>17</v>
       </c>
       <c r="P23" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>129</v>
       </c>
       <c r="Q23" s="12">
         <f t="shared" si="4"/>
@@ -1974,8 +1974,8 @@
         <v>12</v>
       </c>
       <c r="P24" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>128</v>
       </c>
       <c r="Q24" s="12">
         <f t="shared" si="4"/>
@@ -2034,8 +2034,8 @@
         <v>9</v>
       </c>
       <c r="P25" s="14">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>127</v>
       </c>
       <c r="Q25" s="14">
         <f>1500</f>
@@ -2094,8 +2094,8 @@
         <v>6</v>
       </c>
       <c r="P26" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>126</v>
       </c>
       <c r="Q26" s="12">
         <f>1500</f>
@@ -2154,8 +2154,8 @@
         <v>7</v>
       </c>
       <c r="P27" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>125</v>
       </c>
       <c r="Q27" s="12">
         <f>1500</f>
@@ -2212,8 +2212,8 @@
         <v>8</v>
       </c>
       <c r="P28" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>124</v>
       </c>
       <c r="Q28" s="12">
         <f>1500</f>
@@ -2266,8 +2266,8 @@
         <v>11</v>
       </c>
       <c r="P29" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>123</v>
       </c>
       <c r="Q29" s="12">
         <f>1500</f>
@@ -2320,8 +2320,8 @@
         <v>15</v>
       </c>
       <c r="P30" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>122</v>
       </c>
       <c r="Q30" s="12">
         <f>1500</f>
@@ -2374,8 +2374,8 @@
         <v>18</v>
       </c>
       <c r="P31" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>121</v>
       </c>
       <c r="Q31" s="12">
         <f>1500</f>
@@ -2428,8 +2428,8 @@
         <v>21</v>
       </c>
       <c r="P32" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="Q32" s="12">
         <f>1500</f>
@@ -2482,8 +2482,8 @@
         <v>21</v>
       </c>
       <c r="P33" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>119</v>
       </c>
       <c r="Q33" s="12">
         <f>1500</f>
@@ -2536,8 +2536,8 @@
         <v>20</v>
       </c>
       <c r="P34" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>118</v>
       </c>
       <c r="Q34" s="12">
         <f>1500</f>
@@ -2590,8 +2590,8 @@
         <v>17</v>
       </c>
       <c r="P35" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>117</v>
       </c>
       <c r="Q35" s="12">
         <f>1500</f>
@@ -2644,8 +2644,8 @@
         <v>12</v>
       </c>
       <c r="P36" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>116</v>
       </c>
       <c r="Q36" s="12">
         <f>1500</f>
@@ -2698,8 +2698,8 @@
         <v>9</v>
       </c>
       <c r="P37" s="14">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>115</v>
       </c>
       <c r="Q37" s="14">
         <f>1500</f>
@@ -2751,8 +2751,8 @@
         <v>6</v>
       </c>
       <c r="P38" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>114</v>
       </c>
       <c r="Q38" s="12">
         <f>1500</f>
@@ -2804,8 +2804,8 @@
         <v>7</v>
       </c>
       <c r="P39" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>113</v>
       </c>
       <c r="Q39" s="12">
         <f>1500</f>
@@ -2857,8 +2857,8 @@
         <v>8</v>
       </c>
       <c r="P40" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>112</v>
       </c>
       <c r="Q40" s="12">
         <f>1500</f>
@@ -2910,8 +2910,8 @@
         <v>11</v>
       </c>
       <c r="P41" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>111</v>
       </c>
       <c r="Q41" s="12">
         <f>1500</f>
@@ -2963,8 +2963,8 @@
         <v>15</v>
       </c>
       <c r="P42" s="12">
-        <f t="shared" si="1"/>
-        <v>150</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="Q42" s="12">
         <f>1500</f>
